--- a/data/trans_dic/P26-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P26-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P26-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P26-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>44,17; 53,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>47,25; 57,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>35,39; 45,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>13,13; 27,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>42,64; 51,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>47,08; 56,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>31,41; 41,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>14,6; 27,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>44,78; 51,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>49,03; 55,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>34,98; 41,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>15,47; 24,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,01; 37,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>34,78; 42,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>26,88; 34,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>11,01; 20,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>36,78; 44,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>36,29; 44,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>31,4; 39,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>14,85; 22,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>34,39; 39,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>36,75; 42,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>30,52; 36,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>14,27; 20,3</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,5%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>19,71; 26,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>27,61; 34,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>21,37; 29,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>6,8; 12,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>36,05; 43,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>36,1; 43,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>23,49; 30,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>11,33; 16,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>29,32; 34,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>33,01; 38,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>23,68; 28,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>9,88; 13,55</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,82%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>25,83; 34,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>29,38; 37,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>20,67; 28,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>10,17; 44,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>38,23; 47,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>43,0; 52,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>25,35; 32,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>11,67; 16,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>33,31; 39,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>37,42; 43,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>24,14; 29,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>12,04; 27,82</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,68%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>17,83; 26,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>22,31; 31,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>19,44; 27,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>9,38; 15,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>28,19; 37,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>31,85; 41,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>20,69; 29,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>10,77; 15,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>24,1; 30,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>28,31; 35,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>21,24; 27,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,11; 14,67</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>7,6; 13,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>11,97; 18,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>7,75; 13,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,1; 6,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>15,08; 21,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>17,39; 23,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>9,67; 15,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,31; 8,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,47; 16,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>15,79; 20,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,26; 13,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>4,32; 6,91</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>26,83; 30,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,09; 34,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,72; 26,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,53; 17,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>35,5; 38,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,99; 40,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,24; 28,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>11,75; 14,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>31,74; 34,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>34,57; 37,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,93; 27,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>11,87; 15,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P26-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P26-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>20,64%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 27,02</t>
+          <t>13,47; 27,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 27,07</t>
+          <t>15,67; 28,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 24,75</t>
+          <t>16,12; 26,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>16,64%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 20,66</t>
+          <t>11,62; 22,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 22,5</t>
+          <t>10,62; 21,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,3</t>
+          <t>12,3; 19,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 12,07</t>
+          <t>6,88; 12,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,2</t>
+          <t>11,51; 16,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,55</t>
+          <t>10,0; 13,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>26,77%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 44,09</t>
+          <t>10,45; 77,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,06</t>
+          <t>11,1; 15,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 27,82</t>
+          <t>12,03; 58,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,94%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 15,18</t>
+          <t>9,63; 15,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,31</t>
+          <t>10,99; 15,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,67</t>
+          <t>11,34; 14,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 13,31</t>
+          <t>6,34; 13,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,84</t>
+          <t>13,9; 23,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,16</t>
+          <t>9,06; 16,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,0</t>
+          <t>4,76; 9,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,95</t>
+          <t>15,14; 23,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 23,69</t>
+          <t>18,98; 28,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,39</t>
+          <t>9,9; 18,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,49</t>
+          <t>2,31; 10,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,47; 16,85</t>
+          <t>11,89; 17,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,56</t>
+          <t>17,8; 24,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,19</t>
+          <t>10,65; 16,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,91</t>
+          <t>2,27; 8,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,14; 17,36</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 15,92</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 10,19</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 2,87</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 22,88</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 22,81</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 14,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 8,3</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11,01; 18,55</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 18,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 11,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 5,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32,88%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18,49%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37,09%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26,75%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32,89%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>35,84%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>26,83; 30,27</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>31,09; 34,49</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>23,72; 26,83</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>10,53; 17,74</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 37,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>35,5; 38,85</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>36,99; 40,46</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>25,24; 28,25</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 14,53</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 14,4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>31,74; 34,04</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>34,57; 37,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>24,93; 27,11</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>11,87; 15,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 27,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P26-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P26-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,17; 53,11</t>
+          <t>44,11; 53,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,25; 57,06</t>
+          <t>48,15; 57,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,39; 45,29</t>
+          <t>34,8; 44,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 27,99</t>
+          <t>13,36; 27,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,64; 51,12</t>
+          <t>42,81; 51,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,08; 56,56</t>
+          <t>47,31; 56,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,41; 41,51</t>
+          <t>32,0; 41,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,67; 28,93</t>
+          <t>15,65; 28,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,78; 51,02</t>
+          <t>44,69; 51,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,03; 55,83</t>
+          <t>48,81; 55,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,98; 41,84</t>
+          <t>34,56; 41,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 26,33</t>
+          <t>16,26; 25,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,01; 37,23</t>
+          <t>30,14; 37,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,78; 42,67</t>
+          <t>34,98; 42,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,88; 34,92</t>
+          <t>27,16; 34,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 22,04</t>
+          <t>12,09; 22,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,78; 44,99</t>
+          <t>36,9; 45,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,29; 44,38</t>
+          <t>36,12; 44,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,4; 39,37</t>
+          <t>31,56; 39,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 21,31</t>
+          <t>10,4; 21,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 39,83</t>
+          <t>34,16; 39,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,75; 42,05</t>
+          <t>36,74; 42,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,52; 36,29</t>
+          <t>30,46; 35,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,93</t>
+          <t>12,28; 19,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 26,93</t>
+          <t>19,9; 26,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,61; 34,85</t>
+          <t>27,87; 35,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,37; 29,08</t>
+          <t>21,26; 28,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,22</t>
+          <t>6,74; 12,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,05; 43,44</t>
+          <t>36,07; 43,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,1; 43,49</t>
+          <t>36,01; 43,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,49; 30,38</t>
+          <t>23,78; 30,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 16,5</t>
+          <t>11,64; 16,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,32; 34,45</t>
+          <t>29,39; 34,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,01; 38,32</t>
+          <t>32,92; 38,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,68; 28,54</t>
+          <t>23,73; 28,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,75</t>
+          <t>9,99; 13,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,83; 34,78</t>
+          <t>25,94; 34,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 37,75</t>
+          <t>29,72; 38,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 28,28</t>
+          <t>21,05; 28,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 77,51</t>
+          <t>10,4; 72,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,23; 47,13</t>
+          <t>38,45; 47,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,0; 52,19</t>
+          <t>43,14; 51,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,35; 32,72</t>
+          <t>25,32; 32,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,95</t>
+          <t>11,48; 16,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,31; 39,73</t>
+          <t>33,04; 39,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,42; 43,67</t>
+          <t>37,29; 43,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 29,56</t>
+          <t>24,19; 29,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 58,25</t>
+          <t>12,15; 56,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 26,34</t>
+          <t>17,66; 26,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,31; 31,3</t>
+          <t>22,39; 31,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,44; 27,79</t>
+          <t>19,82; 27,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 15,5</t>
+          <t>10,11; 15,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,19; 37,48</t>
+          <t>27,59; 37,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,85; 41,34</t>
+          <t>32,22; 41,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 29,59</t>
+          <t>21,1; 29,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,53</t>
+          <t>11,01; 15,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,1; 30,88</t>
+          <t>24,45; 30,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,31; 35,5</t>
+          <t>28,43; 35,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,24; 27,3</t>
+          <t>21,45; 27,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,97</t>
+          <t>11,19; 14,75</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 13,62</t>
+          <t>6,71; 13,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 23,58</t>
+          <t>13,97; 23,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,73</t>
+          <t>9,2; 16,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,19</t>
+          <t>4,48; 8,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,14; 23,89</t>
+          <t>15,0; 23,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,98; 28,88</t>
+          <t>18,7; 28,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,9; 18,09</t>
+          <t>10,17; 17,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 10,6</t>
+          <t>2,09; 10,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,62</t>
+          <t>11,7; 18,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,8; 24,35</t>
+          <t>17,54; 24,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,27</t>
+          <t>10,57; 16,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,73</t>
+          <t>3,13; 8,75</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,14; 17,36</t>
+          <t>6,73; 16,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,92</t>
+          <t>7,07; 15,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 10,19</t>
+          <t>4,1; 10,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,87</t>
+          <t>0,43; 3,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,39; 22,88</t>
+          <t>12,56; 23,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,74; 22,81</t>
+          <t>13,72; 22,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,98</t>
+          <t>6,96; 15,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,3</t>
+          <t>4,32; 8,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,01; 18,55</t>
+          <t>11,34; 18,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,93; 18,24</t>
+          <t>11,79; 18,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,84</t>
+          <t>6,86; 12,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,39</t>
+          <t>2,87; 5,31</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,83; 30,27</t>
+          <t>26,86; 30,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,09; 34,49</t>
+          <t>31,4; 34,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,72; 26,83</t>
+          <t>23,62; 26,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,07; 37,75</t>
+          <t>11,44; 38,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,5; 38,85</t>
+          <t>35,32; 38,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,99; 40,46</t>
+          <t>37,15; 40,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,25</t>
+          <t>25,12; 28,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,4</t>
+          <t>10,37; 14,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,74; 34,04</t>
+          <t>31,63; 34,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,57; 37,03</t>
+          <t>34,64; 37,1</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24,93; 27,11</t>
+          <t>24,86; 27,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,96; 27,07</t>
+          <t>11,95; 26,66</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tienen algún familiar que fuma habitualmente en casa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>230288</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>235030</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>164435</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>77905</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>214398</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>218595</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>139442</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>65190</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>444687</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>453625</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>303877</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>143095</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>208838; 252249</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>215319; 256160</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>143148; 183551</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52202; 107512</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>195014; 236612</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>199535; 239696</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>122118; 159327</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47336; 86614</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>415176; 476279</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>424155; 481277</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>274021; 331180</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>112693; 180185</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>234039</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>253469</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>171920</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64579</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>243644</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>240131</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>191117</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82778</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>477682</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>493601</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>363037</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>147357</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>209874; 258861</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>229325; 281640</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>151224; 193690</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46921; 87937</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>220246; 269395</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>214944; 264660</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>170498; 214608</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51693; 107673</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>441734; 514011</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>459529; 529454</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>334192; 392363</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>108724; 176894</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>139836</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>206601</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>154025</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45438</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>264189</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>277991</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>174747</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73837</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>404025</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>484592</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>328772</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>119275</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>120159; 161292</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>184883; 233865</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>131243; 175956</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33594; 60647</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>240496; 289678</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>252483; 308431</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>152957; 195293</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>61043; 88284</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>373373; 438726</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>449189; 521716</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>299091; 359903</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>102191; 137852</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>146861</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>196191</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>147914</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>308113</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>208349</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>280478</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>182786</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>95106</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>355210</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>476669</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>330700</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>403219</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>126601; 169746</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>173255; 221708</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>126077; 168935</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84652; 589955</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>186821; 229909</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>255863; 307007</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>159568; 207474</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>79460; 111529</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>321759; 382597</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>438501; 513332</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>297255; 362623</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>182990; 848508</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>79234</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>110063</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>103296</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>64881</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>121617</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>156070</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>113340</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>64967</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>200851</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>266133</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>216635</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>129848</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>63820; 96419</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>92563; 128780</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>87666; 123258</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>51658; 80850</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>103033; 140074</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>137456; 175377</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95832; 133044</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>54207; 75893</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>179684; 224422</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>238853; 295213</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>192293; 247987</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>112309; 148007</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>25206</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>52793</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38504</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>22041</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>53492</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>72162</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>44155</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32728</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>78698</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>124955</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>82658</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>54769</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>17548; 36473</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>40559; 68968</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>28108; 50919</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14660; 29278</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>41651; 65404</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>57368; 88158</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>32706; 57766</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11276; 57850</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>63070; 97078</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>104762; 147865</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>66266; 100944</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27123; 75865</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>18422</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>24634</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14694</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3303</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>41140</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>57029</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>32664</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>18786</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>59561</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>81662</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>47358</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>22089</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11283; 27674</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16080; 36195</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8986; 22261</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1030; 7468</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>29661; 55002</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43666; 71284</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21716; 47670</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>13630; 25527</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>45793; 76328</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>64372; 101966</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>36477; 64816</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15961; 29558</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>873885</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1078781</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>794787</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>586260</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1146829</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1302456</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>878250</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>433391</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2020714</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2381237</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1673037</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1019650</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>819766; 919521</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1030129; 1135805</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>744248; 846071</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>362671; 1220357</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1092109; 1200621</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1249274; 1358923</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>824932; 925972</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>348927; 481007</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1943595; 2094258</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2301312; 2464960</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1599733; 1747684</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>781055; 1741870</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>